--- a/Main_files/Result_worked_models.xlsx
+++ b/Main_files/Result_worked_models.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="656" uniqueCount="348">
   <si>
     <t>model_name</t>
   </si>
@@ -28,6 +28,9 @@
     <t>CA_LS07</t>
   </si>
   <si>
+    <t>CA_ToTEM10</t>
+  </si>
+  <si>
     <t>CL_MS07</t>
   </si>
   <si>
@@ -97,6 +100,9 @@
     <t>EA_VI16gk</t>
   </si>
   <si>
+    <t>FI_AINO16</t>
+  </si>
+  <si>
     <t>G2_SIGMA08</t>
   </si>
   <si>
@@ -289,6 +295,9 @@
     <t>US_CMR14noFA</t>
   </si>
   <si>
+    <t>US_CPS10</t>
+  </si>
+  <si>
     <t>US_DG08</t>
   </si>
   <si>
@@ -355,9 +364,6 @@
     <t>US_LTW17</t>
   </si>
   <si>
-    <t>US_LTW17gz</t>
-  </si>
-  <si>
     <t>US_LTW17nu</t>
   </si>
   <si>
@@ -379,6 +385,9 @@
     <t>US_PM08fl</t>
   </si>
   <si>
+    <t>US_PV15</t>
+  </si>
+  <si>
     <t>US_RA07</t>
   </si>
   <si>
@@ -412,99 +421,24 @@
     <t>&gt;modfile copied</t>
   </si>
   <si>
+    <t>&gt;modfile copied&gt;steadystatefile_copied</t>
+  </si>
+  <si>
     <t>&gt;modfile copied&gt;steadystatefile_copied&gt;extrafile1_copied&gt;extrafile2_copied</t>
   </si>
   <si>
-    <t>&gt;modfile copied</t>
-  </si>
-  <si>
     <t>&gt;modfile copied&gt;extrafile1_copied</t>
   </si>
   <si>
-    <t>&gt;modfile copied</t>
-  </si>
-  <si>
     <t>&gt;modfile copied&gt;steadystatefile_copied&gt;extrafile1_copied</t>
   </si>
   <si>
-    <t>&gt;modfile copied</t>
-  </si>
-  <si>
-    <t>&gt;modfile copied&gt;steadystatefile_copied</t>
-  </si>
-  <si>
-    <t>&gt;modfile copied&gt;extrafile1_copied</t>
-  </si>
-  <si>
-    <t>&gt;modfile copied</t>
-  </si>
-  <si>
-    <t>&gt;modfile copied&gt;steadystatefile_copied</t>
-  </si>
-  <si>
-    <t>&gt;modfile copied</t>
-  </si>
-  <si>
-    <t>&gt;modfile copied&gt;steadystatefile_copied</t>
-  </si>
-  <si>
-    <t>&gt;modfile copied</t>
-  </si>
-  <si>
-    <t>&gt;modfile copied&gt;steadystatefile_copied</t>
-  </si>
-  <si>
-    <t>&gt;modfile copied</t>
-  </si>
-  <si>
-    <t>&gt;modfile copied&gt;extrafile1_copied</t>
-  </si>
-  <si>
-    <t>&gt;modfile copied&gt;steadystatefile_copied</t>
-  </si>
-  <si>
-    <t>&gt;modfile copied</t>
-  </si>
-  <si>
     <t>&gt;modfile copied&gt;extrafile1_copied&gt;extrafile2_copied&gt;extrafile3_copied&gt;extrafile4_copied&gt;extrafile5_copied&gt;extrafile6_copied&gt;extrafile7_copied&gt;extrafile8_copied</t>
   </si>
   <si>
-    <t>&gt;modfile copied</t>
-  </si>
-  <si>
-    <t>&gt;modfile copied&gt;extrafile1_copied</t>
-  </si>
-  <si>
-    <t>&gt;modfile copied</t>
-  </si>
-  <si>
-    <t>&gt;modfile copied&gt;steadystatefile_copied</t>
-  </si>
-  <si>
     <t>&gt;modfile copied&gt;extrafile1_copied&gt;extrafile2_copied</t>
   </si>
   <si>
-    <t>&gt;modfile copied</t>
-  </si>
-  <si>
-    <t>&gt;modfile copied&gt;extrafile1_copied&gt;extrafile2_copied</t>
-  </si>
-  <si>
-    <t>&gt;modfile copied</t>
-  </si>
-  <si>
-    <t>&gt;modfile copied&gt;extrafile1_copied</t>
-  </si>
-  <si>
-    <t>&gt;modfile copied</t>
-  </si>
-  <si>
-    <t>&gt;modfile copied&gt;extrafile1_copied</t>
-  </si>
-  <si>
-    <t>&gt;modfile copied</t>
-  </si>
-  <si>
     <t>error</t>
   </si>
   <si>
@@ -529,6 +463,9 @@
     <t>mmb-rep-master\CA_LS07\CA_LS07_rep\CA_LS07_rep.mod</t>
   </si>
   <si>
+    <t>MT_rep_files\CA_ToTEM10_rep_MT.mod</t>
+  </si>
+  <si>
     <t>MT_rep_files\CL_MS07_rep_MT.mod</t>
   </si>
   <si>
@@ -598,6 +535,9 @@
     <t>mmb-rep-master\EA_VI16\EA_VI16_replication\EA_VI16_rep.mod</t>
   </si>
   <si>
+    <t>mmb-rep-master\FI_AINO16\FI_AINO16_rep\FI_AINO16_rep.mod</t>
+  </si>
+  <si>
     <t>mmb-rep-master\G2_SIGMA08\G2_SIGMA08_rep\G2_SIGMA08_rep.mod</t>
   </si>
   <si>
@@ -790,6 +730,9 @@
     <t>MT_rep_files\US_CMR14noFA_rep_MT.mod</t>
   </si>
   <si>
+    <t>mmb-rep-master\US_CPS10\US_CPS10_rep\US_CPS10_rep1.mod</t>
+  </si>
+  <si>
     <t>mmb-rep-master\US_DG08\US_DG08_rep\US_DG08_rep.mod</t>
   </si>
   <si>
@@ -856,9 +799,6 @@
     <t>mmb-rep-master\US_LTW17\replication\US_LTW17_rep.mod</t>
   </si>
   <si>
-    <t>MT_rep_files\US_LTW17gz_rep_MT.mod</t>
-  </si>
-  <si>
     <t>MT_rep_files\US_LTW17nu_rep_MT.mod</t>
   </si>
   <si>
@@ -877,6 +817,9 @@
     <t>mmb-rep-master\US_PM08fl\US_PM08fl_rep\US_PM08fl_rep.mod</t>
   </si>
   <si>
+    <t>mmb-rep-master\US_PV15\US_PV15_rep\US_PV15_rep.mod</t>
+  </si>
+  <si>
     <t>mmb-rep-master\US_RA07\replication_code\replication_code.mod</t>
   </si>
   <si>
@@ -922,6 +865,9 @@
     <t>steadystate_file</t>
   </si>
   <si>
+    <t>MT_rep_files\CA_ToTEM10_rep_MT_steadystate_2.m</t>
+  </si>
+  <si>
     <t>models\EA_DKR11\steadystate\EA_DKR11_steadystate.m</t>
   </si>
   <si>
@@ -961,6 +907,9 @@
     <t>mmb-rep-master\EA_GNSS10\EA_GNSS10_rep\median_values.txt</t>
   </si>
   <si>
+    <t>mmb-rep-master\FI_AINO16\FI_AINO16_rep\all_parameters_February2016.mat</t>
+  </si>
+  <si>
     <t>mmb-rep-master\NK_DT12\param_Fio2_Revision.m</t>
   </si>
   <si>
@@ -1024,9 +973,6 @@
     <t>there is another alternative policy regime version in the respective folder</t>
   </si>
   <si>
-    <t>old steadystate file</t>
-  </si>
-  <si>
     <t>2 alternative files in the same folder</t>
   </si>
   <si>
@@ -1036,12 +982,6 @@
     <t>other alternative files in same folder</t>
   </si>
   <si>
-    <t>old steadystate file</t>
-  </si>
-  <si>
-    <t>other alternative files in same folder</t>
-  </si>
-  <si>
     <t>sidefile copied from mmb-rep-master\US_LWY13\US_LWY13_rep and renamed from param.mat to paramfile_leeper.mat</t>
   </si>
   <si>
@@ -1075,42 +1015,15 @@
     <t>other_sidefiles_1</t>
   </si>
   <si>
-    <t>mmb-rep-master\EA_DKR11\EA_DKR11_rep\MDP_SS_omegss.m;mmb-rep-master\EA_DKR11\EA_DKR11_rep\MDP_SS_omegssHH.m</t>
-  </si>
-  <si>
-    <t>mmb-rep-master\EA_GNSS10\EA_GNSS10_rep\median_values.txt</t>
-  </si>
-  <si>
-    <t>mmb-rep-master\NK_DT12\param_Fio2_Revision.m</t>
-  </si>
-  <si>
-    <t>mmb-rep-master\NK_GHP16\Replication\NK_GHP16_rep\parameterfile.mat</t>
-  </si>
-  <si>
-    <t>mmb-rep-master\US_CFP17\US_CFP17_rep\parameterfile.mat</t>
-  </si>
-  <si>
     <t>models_current\US_CMR10\ss_CMR_baseline_US.mat</t>
   </si>
   <si>
-    <t>mmb-rep-master\US_CMR10\Replication files\steady_state\ss_parameters_US_FAM.mat</t>
-  </si>
-  <si>
-    <t>mmb-rep-master\US_FGKR15\main_code_FGKR_20121236\RunDynarePruning.m;mmb-rep-master\US_FGKR15\main_code_FGKR_20121236\Dynare_Unfold_Matrices.m;mmb-rep-master\US_FGKR15\main_code_FGKR_20121236\StateSpaceDynare_LinearInov.m;mmb-rep-master\US_FGKR15\main_code_FGKR_20121236\reduceControlsDynare.m;mmb-rep-master\US_FGKR15\main_code_FGKR_20121236\Simulate_Pruning_LinearInov.m;mmb-rep-master\US_FGKR15\main_code_FGKR_20121236\hpf.m;mmb-rep-master\US_FGKR15\main_code_FGKR_20121236\make_irfs.m;mmb-rep-master\US_FGKR15\main_code_FGKR_20121236\loc.m</t>
-  </si>
-  <si>
     <t>models_current\US_FRB08\Sigma_US_FRB08.mat</t>
   </si>
   <si>
     <t>models_current\US_FRB08mx\Sigma_US_FRB08mx.mat</t>
   </si>
   <si>
-    <t>mmb-rep-master\US_HL16\Replication\US_HL16_rep\median_param_FI.mat;mmb-rep-master\US_HL16\Replication\US_HL16_rep\median_std_FI.mat</t>
-  </si>
-  <si>
-    <t>mmb-rep-master\US_KK14\multipliers\draws_ext.mat;mmb-rep-master\US_KK14\multipliers\setparams2.m</t>
-  </si>
-  <si>
     <t>models_current\US_VMDno\FIMSteadyStateMMB.mat</t>
   </si>
   <si>
@@ -1120,76 +1033,31 @@
     <t>rep_comment_1</t>
   </si>
   <si>
-    <t>new steadystate file</t>
-  </si>
-  <si>
-    <t>this is the version with Financial frictions, "NK_CW09_FF.mod" from the directory "mmb-rep-master\NK_CW09". There are also files "NK_CW09_NoFF.mod" and "NK_CW09_RepHH.mod".</t>
-  </si>
-  <si>
-    <t>there are lots of other files in the folder "mmb-rep-master\NK_DEFK17\NK_DEFK17_rep" where the taken version "DEFK_int.mod" came from</t>
-  </si>
-  <si>
-    <t>old steadystate file</t>
-  </si>
-  <si>
-    <t>the chosen version is with imperfectly competitive labor market, a version with perfectly competitive labor market was also in folder "mmb-rep-master\NK_GLSV07\NK_GLSV07_rep"</t>
-  </si>
-  <si>
-    <t>there are 3 alternative policy regime versions of the .mod file in the replication folder</t>
-  </si>
-  <si>
-    <t>there is another alternative policy regime version in the respective folder</t>
-  </si>
-  <si>
-    <t>old steadystate file</t>
-  </si>
-  <si>
-    <t>2 alternative files in the same folder</t>
-  </si>
-  <si>
-    <t>3 alternative files in the same folder</t>
-  </si>
-  <si>
-    <t>other alternative files in same folder</t>
-  </si>
-  <si>
-    <t>old steadystate file</t>
-  </si>
-  <si>
-    <t>other alternative files in same folder</t>
-  </si>
-  <si>
     <t>manual_adaption_comment_1</t>
   </si>
   <si>
-    <t>adapted starting from "mmb-rep-master\EA_ALSV06\ALSV06WPh_rep.mod"; Parameter directly put in .mod file, had been loaded from run.m file in old version; alternative file "mmb-rep-master\EA_ALSV06\ALSV06WP_rep.mod" would have been without habit formation</t>
-  </si>
-  <si>
-    <t>deleted close all and dynare &lt;early version&gt; calls</t>
-  </si>
-  <si>
-    <t>I deleted figure closing matlab statements</t>
-  </si>
-  <si>
-    <t>I had to come up with interest rate rule parameters and hard coded them into the mod file</t>
-  </si>
-  <si>
-    <t>I only changed the "stoch_simul()" command input "linear" to "order=1" from the file "mmb-rep-master\US_CCF12\US_CCF12_rep\chen_replication.mod"</t>
-  </si>
-  <si>
-    <t>mmb-rep-master\US_CFP17\US_CFP17_rep\US_CFP17_rep_endo.mod is the orgiginal, stochsimul option linear changed to order=1</t>
-  </si>
-  <si>
-    <t>mmb-rep-master\US_CFP17\US_CFP17_rep\US_CFP17_rep_exo.mod is the orgiginal, stochsimul option linear changed to order=1</t>
-  </si>
-  <si>
     <t>error_loop_run_descr</t>
   </si>
   <si>
+    <t>there seems to be a problem with the parameters supplied to the model via the microsoft access table link</t>
+  </si>
+  <si>
     <t>after running dynare, the commands call for an error</t>
   </si>
   <si>
     <t>error_loop_run_matlab_error_msg</t>
+  </si>
+  <si>
+    <t>Error using eval
+Must be a text scalar.
+Error in FI_AINO16_rep.driver (line 932)
+M_.params(i) = eval(['pp.' name]);
+Error in dynare (line 281)
+    evalin('base',[fname '.driver']);
+Error in mmb_loop_Max (line 61)
+eval(['dynare ', mmb_vec{loop_k}, '_rep noclearall nograph nostrict'])
+Error in testing_routine (line 11)
+mmb_loop_Max</t>
   </si>
   <si>
     <t>Dot indexing is not supported for variables of this type.
@@ -1210,7 +1078,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -1249,8 +1117,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y129"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y132"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.7109375" customWidth="true"/>
@@ -1274,7 +1145,7 @@
     <col min="19" max="19" width="563.140625" customWidth="true"/>
     <col min="20" max="20" width="164.42578125" customWidth="true"/>
     <col min="21" max="21" width="240" customWidth="true"/>
-    <col min="22" max="22" width="47.140625" customWidth="true"/>
+    <col min="22" max="22" width="95" customWidth="true"/>
     <col min="23" max="23" width="77.7109375" customWidth="true"/>
     <col min="24" max="24" width="9.5703125" customWidth="true"/>
     <col min="25" max="25" width="15.7109375" customWidth="true"/>
@@ -1285,76 +1156,76 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
       <c r="Q1" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="U1" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="V1" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="W1" s="0" t="s">
         <v>343</v>
       </c>
-      <c r="R1" s="0" t="s">
-        <v>351</v>
-      </c>
-      <c r="S1" s="0" t="s">
-        <v>352</v>
-      </c>
-      <c r="T1" s="0" t="s">
-        <v>367</v>
-      </c>
-      <c r="U1" s="0" t="s">
-        <v>381</v>
-      </c>
-      <c r="V1" s="0" t="s">
-        <v>389</v>
-      </c>
-      <c r="W1" s="0" t="s">
-        <v>391</v>
-      </c>
       <c r="X1" s="0" t="s">
-        <v>393</v>
+        <v>346</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>394</v>
+        <v>347</v>
       </c>
     </row>
     <row r="2">
@@ -1365,10 +1236,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E2" s="0">
         <v>0</v>
@@ -1377,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="H2" s="0">
         <v>1</v>
@@ -1424,10 +1295,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E3" s="0">
         <v>0</v>
@@ -1436,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="H3" s="0">
         <v>0</v>
@@ -1483,10 +1354,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E4" s="0">
         <v>0</v>
@@ -1495,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="H4" s="0">
         <v>1</v>
@@ -1542,10 +1413,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E5" s="0">
         <v>0</v>
@@ -1554,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="H5" s="0">
         <v>0</v>
@@ -1572,17 +1443,23 @@
         <v>0</v>
       </c>
       <c r="M5" s="0">
-        <v>0</v>
-      </c>
-      <c r="N5" s="0"/>
+        <v>1</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>283</v>
+      </c>
       <c r="O5" s="0"/>
-      <c r="P5" s="0"/>
+      <c r="P5" s="0" t="s">
+        <v>312</v>
+      </c>
       <c r="Q5" s="0"/>
       <c r="R5" s="0" t="b">
         <v>0</v>
       </c>
       <c r="S5" s="0"/>
-      <c r="T5" s="0"/>
+      <c r="T5" s="0" t="s">
+        <v>312</v>
+      </c>
       <c r="U5" s="0"/>
       <c r="V5" s="0"/>
       <c r="W5" s="0"/>
@@ -1601,10 +1478,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E6" s="0">
         <v>0</v>
@@ -1613,13 +1490,13 @@
         <v>0</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="H6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
@@ -1660,10 +1537,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E7" s="0">
         <v>0</v>
@@ -1672,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="H7" s="0">
         <v>1</v>
@@ -1719,10 +1596,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E8" s="0">
         <v>0</v>
@@ -1731,7 +1608,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="H8" s="0">
         <v>1</v>
@@ -1778,10 +1655,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E9" s="0">
         <v>0</v>
@@ -1790,13 +1667,13 @@
         <v>0</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="H9" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
@@ -1837,10 +1714,10 @@
         <v>1</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E10" s="0">
         <v>0</v>
@@ -1849,13 +1726,13 @@
         <v>0</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="H10" s="0">
         <v>0</v>
       </c>
       <c r="I10" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" s="0">
         <v>0</v>
@@ -1864,7 +1741,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" s="0">
         <v>0</v>
@@ -1872,17 +1749,13 @@
       <c r="N10" s="0"/>
       <c r="O10" s="0"/>
       <c r="P10" s="0"/>
-      <c r="Q10" s="0" t="s">
-        <v>344</v>
-      </c>
+      <c r="Q10" s="0"/>
       <c r="R10" s="0" t="b">
         <v>0</v>
       </c>
       <c r="S10" s="0"/>
       <c r="T10" s="0"/>
-      <c r="U10" s="0" t="s">
-        <v>382</v>
-      </c>
+      <c r="U10" s="0"/>
       <c r="V10" s="0"/>
       <c r="W10" s="0"/>
       <c r="X10" s="0">
@@ -1900,10 +1773,10 @@
         <v>1</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E11" s="0">
         <v>0</v>
@@ -1912,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="H11" s="0">
         <v>0</v>
@@ -1924,10 +1797,10 @@
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" s="0">
         <v>0</v>
@@ -1935,13 +1808,17 @@
       <c r="N11" s="0"/>
       <c r="O11" s="0"/>
       <c r="P11" s="0"/>
-      <c r="Q11" s="0"/>
+      <c r="Q11" s="0" t="s">
+        <v>324</v>
+      </c>
       <c r="R11" s="0" t="b">
         <v>0</v>
       </c>
       <c r="S11" s="0"/>
       <c r="T11" s="0"/>
-      <c r="U11" s="0"/>
+      <c r="U11" s="0" t="s">
+        <v>324</v>
+      </c>
       <c r="V11" s="0"/>
       <c r="W11" s="0"/>
       <c r="X11" s="0">
@@ -1959,10 +1836,10 @@
         <v>1</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E12" s="0">
         <v>0</v>
@@ -1971,10 +1848,10 @@
         <v>0</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="H12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" s="0">
         <v>0</v>
@@ -1983,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" s="0">
         <v>0</v>
@@ -2018,10 +1895,10 @@
         <v>1</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E13" s="0">
         <v>0</v>
@@ -2030,16 +1907,16 @@
         <v>0</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="H13" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="0">
         <v>0</v>
       </c>
       <c r="J13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" s="0">
         <v>0</v>
@@ -2077,10 +1954,10 @@
         <v>1</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E14" s="0">
         <v>0</v>
@@ -2089,16 +1966,16 @@
         <v>0</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="H14" s="0">
         <v>0</v>
       </c>
       <c r="I14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="0">
         <v>0</v>
@@ -2136,10 +2013,10 @@
         <v>1</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E15" s="0">
         <v>0</v>
@@ -2148,13 +2025,13 @@
         <v>0</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="H15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" s="0">
         <v>0</v>
@@ -2195,10 +2072,10 @@
         <v>1</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E16" s="0">
         <v>0</v>
@@ -2207,7 +2084,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="H16" s="0">
         <v>1</v>
@@ -2254,10 +2131,10 @@
         <v>1</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E17" s="0">
         <v>0</v>
@@ -2266,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="H17" s="0">
         <v>1</v>
@@ -2284,27 +2161,17 @@
         <v>0</v>
       </c>
       <c r="M17" s="0">
-        <v>1</v>
-      </c>
-      <c r="N17" s="0" t="s">
-        <v>302</v>
-      </c>
-      <c r="O17" s="0" t="s">
-        <v>313</v>
-      </c>
-      <c r="P17" s="0" t="s">
-        <v>329</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N17" s="0"/>
+      <c r="O17" s="0"/>
+      <c r="P17" s="0"/>
       <c r="Q17" s="0"/>
       <c r="R17" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="S17" s="0" t="s">
-        <v>353</v>
-      </c>
-      <c r="T17" s="0" t="s">
-        <v>368</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S17" s="0"/>
+      <c r="T17" s="0"/>
       <c r="U17" s="0"/>
       <c r="V17" s="0"/>
       <c r="W17" s="0"/>
@@ -2312,7 +2179,7 @@
         <v>0</v>
       </c>
       <c r="Y17" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2323,10 +2190,10 @@
         <v>1</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E18" s="0">
         <v>0</v>
@@ -2335,10 +2202,10 @@
         <v>0</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="H18" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="0">
         <v>0</v>
@@ -2347,23 +2214,33 @@
         <v>0</v>
       </c>
       <c r="K18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" s="0">
         <v>0</v>
       </c>
       <c r="M18" s="0">
-        <v>0</v>
-      </c>
-      <c r="N18" s="0"/>
-      <c r="O18" s="0"/>
-      <c r="P18" s="0"/>
+        <v>1</v>
+      </c>
+      <c r="N18" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="O18" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="P18" s="0" t="s">
+        <v>312</v>
+      </c>
       <c r="Q18" s="0"/>
       <c r="R18" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="S18" s="0"/>
-      <c r="T18" s="0"/>
+        <v>1</v>
+      </c>
+      <c r="S18" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="T18" s="0" t="s">
+        <v>312</v>
+      </c>
       <c r="U18" s="0"/>
       <c r="V18" s="0"/>
       <c r="W18" s="0"/>
@@ -2371,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="Y18" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -2385,7 +2262,7 @@
         <v>134</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E19" s="0">
         <v>0</v>
@@ -2394,10 +2271,10 @@
         <v>0</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="H19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
@@ -2406,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" s="0">
         <v>0</v>
@@ -2415,17 +2292,13 @@
         <v>0</v>
       </c>
       <c r="N19" s="0"/>
-      <c r="O19" s="0" t="s">
-        <v>314</v>
-      </c>
+      <c r="O19" s="0"/>
       <c r="P19" s="0"/>
       <c r="Q19" s="0"/>
       <c r="R19" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="S19" s="0" t="s">
-        <v>354</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S19" s="0"/>
       <c r="T19" s="0"/>
       <c r="U19" s="0"/>
       <c r="V19" s="0"/>
@@ -2434,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y19" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2445,22 +2318,22 @@
         <v>1</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D20" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="E20" s="0">
+        <v>0</v>
+      </c>
+      <c r="F20" s="0">
+        <v>0</v>
+      </c>
+      <c r="G20" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="E20" s="0">
-        <v>0</v>
-      </c>
-      <c r="F20" s="0">
-        <v>0</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>186</v>
-      </c>
       <c r="H20" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="0">
         <v>0</v>
@@ -2469,7 +2342,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" s="0">
         <v>0</v>
@@ -2478,13 +2351,17 @@
         <v>0</v>
       </c>
       <c r="N20" s="0"/>
-      <c r="O20" s="0"/>
+      <c r="O20" s="0" t="s">
+        <v>296</v>
+      </c>
       <c r="P20" s="0"/>
       <c r="Q20" s="0"/>
       <c r="R20" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="S20" s="0"/>
+        <v>1</v>
+      </c>
+      <c r="S20" s="0" t="s">
+        <v>296</v>
+      </c>
       <c r="T20" s="0"/>
       <c r="U20" s="0"/>
       <c r="V20" s="0"/>
@@ -2493,7 +2370,7 @@
         <v>0</v>
       </c>
       <c r="Y20" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -2504,10 +2381,10 @@
         <v>1</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E21" s="0">
         <v>0</v>
@@ -2516,7 +2393,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="H21" s="0">
         <v>0</v>
@@ -2563,10 +2440,10 @@
         <v>1</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E22" s="0">
         <v>0</v>
@@ -2575,10 +2452,10 @@
         <v>0</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="H22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" s="0">
         <v>0</v>
@@ -2587,7 +2464,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" s="0">
         <v>0</v>
@@ -2622,10 +2499,10 @@
         <v>1</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E23" s="0">
         <v>0</v>
@@ -2634,7 +2511,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="H23" s="0">
         <v>1</v>
@@ -2681,10 +2558,10 @@
         <v>1</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E24" s="0">
         <v>0</v>
@@ -2693,7 +2570,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="H24" s="0">
         <v>1</v>
@@ -2740,10 +2617,10 @@
         <v>1</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E25" s="0">
         <v>0</v>
@@ -2752,7 +2629,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="H25" s="0">
         <v>1</v>
@@ -2799,10 +2676,10 @@
         <v>1</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E26" s="0">
         <v>0</v>
@@ -2811,7 +2688,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="H26" s="0">
         <v>1</v>
@@ -2858,10 +2735,10 @@
         <v>1</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E27" s="0">
         <v>0</v>
@@ -2870,10 +2747,10 @@
         <v>0</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="H27" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" s="0">
         <v>0</v>
@@ -2882,7 +2759,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27" s="0">
         <v>0</v>
@@ -2917,10 +2794,10 @@
         <v>1</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E28" s="0">
         <v>0</v>
@@ -2929,10 +2806,10 @@
         <v>0</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="H28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" s="0">
         <v>0</v>
@@ -2941,7 +2818,7 @@
         <v>0</v>
       </c>
       <c r="K28" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28" s="0">
         <v>0</v>
@@ -2976,10 +2853,10 @@
         <v>1</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E29" s="0">
         <v>0</v>
@@ -2988,7 +2865,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="H29" s="0">
         <v>1</v>
@@ -3009,22 +2886,30 @@
         <v>0</v>
       </c>
       <c r="N29" s="0"/>
-      <c r="O29" s="0"/>
+      <c r="O29" s="0" t="s">
+        <v>297</v>
+      </c>
       <c r="P29" s="0"/>
       <c r="Q29" s="0"/>
       <c r="R29" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="S29" s="0"/>
+        <v>1</v>
+      </c>
+      <c r="S29" s="0" t="s">
+        <v>297</v>
+      </c>
       <c r="T29" s="0"/>
       <c r="U29" s="0"/>
-      <c r="V29" s="0"/>
-      <c r="W29" s="0"/>
+      <c r="V29" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="W29" s="0" t="s">
+        <v>344</v>
+      </c>
       <c r="X29" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y29" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -3035,10 +2920,10 @@
         <v>1</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E30" s="0">
         <v>0</v>
@@ -3047,7 +2932,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="H30" s="0">
         <v>1</v>
@@ -3094,10 +2979,10 @@
         <v>1</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E31" s="0">
         <v>0</v>
@@ -3106,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="H31" s="0">
         <v>1</v>
@@ -3153,10 +3038,10 @@
         <v>1</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E32" s="0">
         <v>0</v>
@@ -3165,16 +3050,16 @@
         <v>0</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="H32" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" s="0">
         <v>0</v>
       </c>
       <c r="J32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" s="0">
         <v>0</v>
@@ -3212,10 +3097,10 @@
         <v>1</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E33" s="0">
         <v>0</v>
@@ -3224,13 +3109,13 @@
         <v>0</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="H33" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" s="0">
         <v>0</v>
@@ -3271,10 +3156,10 @@
         <v>1</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E34" s="0">
         <v>0</v>
@@ -3283,16 +3168,16 @@
         <v>0</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="H34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" s="0">
         <v>0</v>
       </c>
       <c r="J34" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" s="0">
         <v>0</v>
@@ -3330,10 +3215,10 @@
         <v>1</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E35" s="0">
         <v>0</v>
@@ -3342,19 +3227,19 @@
         <v>0</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="H35" s="0">
         <v>0</v>
       </c>
       <c r="I35" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" s="0">
         <v>0</v>
       </c>
       <c r="K35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L35" s="0">
         <v>0</v>
@@ -3389,10 +3274,10 @@
         <v>1</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E36" s="0">
         <v>0</v>
@@ -3401,10 +3286,10 @@
         <v>0</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="H36" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" s="0">
         <v>0</v>
@@ -3413,7 +3298,7 @@
         <v>0</v>
       </c>
       <c r="K36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L36" s="0">
         <v>0</v>
@@ -3448,10 +3333,10 @@
         <v>1</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E37" s="0">
         <v>0</v>
@@ -3460,19 +3345,19 @@
         <v>0</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="H37" s="0">
         <v>0</v>
       </c>
       <c r="I37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" s="0">
         <v>0</v>
       </c>
       <c r="K37" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L37" s="0">
         <v>0</v>
@@ -3507,10 +3392,10 @@
         <v>1</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E38" s="0">
         <v>0</v>
@@ -3519,10 +3404,10 @@
         <v>0</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="H38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" s="0">
         <v>0</v>
@@ -3531,7 +3416,7 @@
         <v>0</v>
       </c>
       <c r="K38" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38" s="0">
         <v>0</v>
@@ -3566,10 +3451,10 @@
         <v>1</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E39" s="0">
         <v>0</v>
@@ -3578,7 +3463,7 @@
         <v>0</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="H39" s="0">
         <v>0</v>
@@ -3625,10 +3510,10 @@
         <v>1</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E40" s="0">
         <v>0</v>
@@ -3637,13 +3522,13 @@
         <v>0</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="H40" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" s="0">
         <v>0</v>
@@ -3684,10 +3569,10 @@
         <v>1</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E41" s="0">
         <v>0</v>
@@ -3696,7 +3581,7 @@
         <v>0</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="H41" s="0">
         <v>0</v>
@@ -3743,10 +3628,10 @@
         <v>1</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E42" s="0">
         <v>0</v>
@@ -3755,7 +3640,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="H42" s="0">
         <v>0</v>
@@ -3802,10 +3687,10 @@
         <v>1</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E43" s="0">
         <v>0</v>
@@ -3814,13 +3699,13 @@
         <v>0</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="H43" s="0">
         <v>0</v>
       </c>
       <c r="I43" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" s="0">
         <v>0</v>
@@ -3829,29 +3714,21 @@
         <v>0</v>
       </c>
       <c r="L43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M43" s="0">
         <v>0</v>
       </c>
       <c r="N43" s="0"/>
       <c r="O43" s="0"/>
-      <c r="P43" s="0" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q43" s="0" t="s">
-        <v>345</v>
-      </c>
+      <c r="P43" s="0"/>
+      <c r="Q43" s="0"/>
       <c r="R43" s="0" t="b">
         <v>0</v>
       </c>
       <c r="S43" s="0"/>
-      <c r="T43" s="0" t="s">
-        <v>369</v>
-      </c>
-      <c r="U43" s="0" t="s">
-        <v>383</v>
-      </c>
+      <c r="T43" s="0"/>
+      <c r="U43" s="0"/>
       <c r="V43" s="0"/>
       <c r="W43" s="0"/>
       <c r="X43" s="0">
@@ -3869,10 +3746,10 @@
         <v>1</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E44" s="0">
         <v>0</v>
@@ -3881,13 +3758,13 @@
         <v>0</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="H44" s="0">
         <v>0</v>
       </c>
       <c r="I44" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" s="0">
         <v>0</v>
@@ -3896,29 +3773,21 @@
         <v>0</v>
       </c>
       <c r="L44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M44" s="0">
         <v>0</v>
       </c>
       <c r="N44" s="0"/>
       <c r="O44" s="0"/>
-      <c r="P44" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q44" s="0" t="s">
-        <v>346</v>
-      </c>
+      <c r="P44" s="0"/>
+      <c r="Q44" s="0"/>
       <c r="R44" s="0" t="b">
         <v>0</v>
       </c>
       <c r="S44" s="0"/>
-      <c r="T44" s="0" t="s">
-        <v>370</v>
-      </c>
-      <c r="U44" s="0" t="s">
-        <v>384</v>
-      </c>
+      <c r="T44" s="0"/>
+      <c r="U44" s="0"/>
       <c r="V44" s="0"/>
       <c r="W44" s="0"/>
       <c r="X44" s="0">
@@ -3936,10 +3805,10 @@
         <v>1</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E45" s="0">
         <v>0</v>
@@ -3948,7 +3817,7 @@
         <v>0</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="H45" s="0">
         <v>0</v>
@@ -3960,37 +3829,39 @@
         <v>0</v>
       </c>
       <c r="K45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M45" s="0">
-        <v>1</v>
-      </c>
-      <c r="N45" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="O45" s="0" t="s">
-        <v>315</v>
-      </c>
-      <c r="P45" s="0"/>
-      <c r="Q45" s="0"/>
+        <v>0</v>
+      </c>
+      <c r="N45" s="0"/>
+      <c r="O45" s="0"/>
+      <c r="P45" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q45" s="0" t="s">
+        <v>325</v>
+      </c>
       <c r="R45" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="S45" s="0" t="s">
-        <v>355</v>
-      </c>
-      <c r="T45" s="0"/>
-      <c r="U45" s="0"/>
+        <v>0</v>
+      </c>
+      <c r="S45" s="0"/>
+      <c r="T45" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="U45" s="0" t="s">
+        <v>325</v>
+      </c>
       <c r="V45" s="0"/>
       <c r="W45" s="0"/>
       <c r="X45" s="0">
         <v>0</v>
       </c>
       <c r="Y45" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4001,10 +3872,10 @@
         <v>1</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E46" s="0">
         <v>0</v>
@@ -4013,10 +3884,10 @@
         <v>0</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="H46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" s="0">
         <v>0</v>
@@ -4028,21 +3899,29 @@
         <v>0</v>
       </c>
       <c r="L46" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M46" s="0">
         <v>0</v>
       </c>
       <c r="N46" s="0"/>
       <c r="O46" s="0"/>
-      <c r="P46" s="0"/>
-      <c r="Q46" s="0"/>
+      <c r="P46" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q46" s="0" t="s">
+        <v>326</v>
+      </c>
       <c r="R46" s="0" t="b">
         <v>0</v>
       </c>
       <c r="S46" s="0"/>
-      <c r="T46" s="0"/>
-      <c r="U46" s="0"/>
+      <c r="T46" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="U46" s="0" t="s">
+        <v>326</v>
+      </c>
       <c r="V46" s="0"/>
       <c r="W46" s="0"/>
       <c r="X46" s="0">
@@ -4063,7 +3942,7 @@
         <v>138</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E47" s="0">
         <v>0</v>
@@ -4072,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="H47" s="0">
         <v>0</v>
@@ -4081,10 +3960,10 @@
         <v>0</v>
       </c>
       <c r="J47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K47" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L47" s="0">
         <v>0</v>
@@ -4093,20 +3972,20 @@
         <v>1</v>
       </c>
       <c r="N47" s="0" t="s">
-        <v>304</v>
-      </c>
-      <c r="O47" s="0"/>
-      <c r="P47" s="0" t="s">
-        <v>332</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="O47" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="P47" s="0"/>
       <c r="Q47" s="0"/>
       <c r="R47" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="S47" s="0"/>
-      <c r="T47" s="0" t="s">
-        <v>371</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="S47" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="T47" s="0"/>
       <c r="U47" s="0"/>
       <c r="V47" s="0"/>
       <c r="W47" s="0"/>
@@ -4114,7 +3993,7 @@
         <v>0</v>
       </c>
       <c r="Y47" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -4125,10 +4004,10 @@
         <v>1</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E48" s="0">
         <v>0</v>
@@ -4137,10 +4016,10 @@
         <v>0</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="H48" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" s="0">
         <v>0</v>
@@ -4149,7 +4028,7 @@
         <v>0</v>
       </c>
       <c r="K48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L48" s="0">
         <v>0</v>
@@ -4158,17 +4037,13 @@
         <v>0</v>
       </c>
       <c r="N48" s="0"/>
-      <c r="O48" s="0" t="s">
-        <v>316</v>
-      </c>
+      <c r="O48" s="0"/>
       <c r="P48" s="0"/>
       <c r="Q48" s="0"/>
       <c r="R48" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="S48" s="0" t="s">
-        <v>356</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S48" s="0"/>
       <c r="T48" s="0"/>
       <c r="U48" s="0"/>
       <c r="V48" s="0"/>
@@ -4177,7 +4052,7 @@
         <v>0</v>
       </c>
       <c r="Y48" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -4188,10 +4063,10 @@
         <v>1</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E49" s="0">
         <v>0</v>
@@ -4200,7 +4075,7 @@
         <v>0</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="H49" s="0">
         <v>0</v>
@@ -4209,26 +4084,32 @@
         <v>0</v>
       </c>
       <c r="J49" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L49" s="0">
         <v>0</v>
       </c>
       <c r="M49" s="0">
-        <v>0</v>
-      </c>
-      <c r="N49" s="0"/>
+        <v>1</v>
+      </c>
+      <c r="N49" s="0" t="s">
+        <v>286</v>
+      </c>
       <c r="O49" s="0"/>
-      <c r="P49" s="0"/>
+      <c r="P49" s="0" t="s">
+        <v>315</v>
+      </c>
       <c r="Q49" s="0"/>
       <c r="R49" s="0" t="b">
         <v>0</v>
       </c>
       <c r="S49" s="0"/>
-      <c r="T49" s="0"/>
+      <c r="T49" s="0" t="s">
+        <v>315</v>
+      </c>
       <c r="U49" s="0"/>
       <c r="V49" s="0"/>
       <c r="W49" s="0"/>
@@ -4247,10 +4128,10 @@
         <v>1</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E50" s="0">
         <v>0</v>
@@ -4259,10 +4140,10 @@
         <v>0</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="H50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" s="0">
         <v>0</v>
@@ -4271,29 +4152,27 @@
         <v>0</v>
       </c>
       <c r="K50" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L50" s="0">
         <v>0</v>
       </c>
       <c r="M50" s="0">
-        <v>1</v>
-      </c>
-      <c r="N50" s="0" t="s">
-        <v>305</v>
-      </c>
-      <c r="O50" s="0"/>
-      <c r="P50" s="0" t="s">
-        <v>332</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N50" s="0"/>
+      <c r="O50" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="P50" s="0"/>
       <c r="Q50" s="0"/>
       <c r="R50" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="S50" s="0"/>
-      <c r="T50" s="0" t="s">
-        <v>371</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="S50" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="T50" s="0"/>
       <c r="U50" s="0"/>
       <c r="V50" s="0"/>
       <c r="W50" s="0"/>
@@ -4301,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="Y50" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -4312,10 +4191,10 @@
         <v>1</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E51" s="0">
         <v>0</v>
@@ -4324,10 +4203,10 @@
         <v>0</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="H51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" s="0">
         <v>0</v>
@@ -4336,7 +4215,7 @@
         <v>0</v>
       </c>
       <c r="K51" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L51" s="0">
         <v>0</v>
@@ -4354,14 +4233,10 @@
       <c r="S51" s="0"/>
       <c r="T51" s="0"/>
       <c r="U51" s="0"/>
-      <c r="V51" s="0" t="s">
-        <v>390</v>
-      </c>
-      <c r="W51" s="0" t="s">
-        <v>392</v>
-      </c>
+      <c r="V51" s="0"/>
+      <c r="W51" s="0"/>
       <c r="X51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y51" s="0" t="b">
         <v>0</v>
@@ -4375,10 +4250,10 @@
         <v>1</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E52" s="0">
         <v>0</v>
@@ -4387,10 +4262,10 @@
         <v>0</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="H52" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" s="0">
         <v>0</v>
@@ -4399,18 +4274,20 @@
         <v>0</v>
       </c>
       <c r="K52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L52" s="0">
         <v>0</v>
       </c>
       <c r="M52" s="0">
-        <v>0</v>
-      </c>
-      <c r="N52" s="0"/>
+        <v>1</v>
+      </c>
+      <c r="N52" s="0" t="s">
+        <v>287</v>
+      </c>
       <c r="O52" s="0"/>
       <c r="P52" s="0" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
       <c r="Q52" s="0"/>
       <c r="R52" s="0" t="b">
@@ -4418,7 +4295,7 @@
       </c>
       <c r="S52" s="0"/>
       <c r="T52" s="0" t="s">
-        <v>372</v>
+        <v>315</v>
       </c>
       <c r="U52" s="0"/>
       <c r="V52" s="0"/>
@@ -4438,10 +4315,10 @@
         <v>1</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E53" s="0">
         <v>0</v>
@@ -4450,10 +4327,10 @@
         <v>0</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="H53" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" s="0">
         <v>0</v>
@@ -4462,7 +4339,7 @@
         <v>0</v>
       </c>
       <c r="K53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L53" s="0">
         <v>0</v>
@@ -4472,22 +4349,22 @@
       </c>
       <c r="N53" s="0"/>
       <c r="O53" s="0"/>
-      <c r="P53" s="0" t="s">
-        <v>334</v>
-      </c>
+      <c r="P53" s="0"/>
       <c r="Q53" s="0"/>
       <c r="R53" s="0" t="b">
         <v>0</v>
       </c>
       <c r="S53" s="0"/>
-      <c r="T53" s="0" t="s">
-        <v>373</v>
-      </c>
+      <c r="T53" s="0"/>
       <c r="U53" s="0"/>
-      <c r="V53" s="0"/>
-      <c r="W53" s="0"/>
+      <c r="V53" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="W53" s="0" t="s">
+        <v>345</v>
+      </c>
       <c r="X53" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y53" s="0" t="b">
         <v>0</v>
@@ -4501,10 +4378,10 @@
         <v>1</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E54" s="0">
         <v>0</v>
@@ -4513,10 +4390,10 @@
         <v>0</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="H54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" s="0">
         <v>0</v>
@@ -4525,7 +4402,7 @@
         <v>0</v>
       </c>
       <c r="K54" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L54" s="0">
         <v>0</v>
@@ -4535,13 +4412,17 @@
       </c>
       <c r="N54" s="0"/>
       <c r="O54" s="0"/>
-      <c r="P54" s="0"/>
+      <c r="P54" s="0" t="s">
+        <v>316</v>
+      </c>
       <c r="Q54" s="0"/>
       <c r="R54" s="0" t="b">
         <v>0</v>
       </c>
       <c r="S54" s="0"/>
-      <c r="T54" s="0"/>
+      <c r="T54" s="0" t="s">
+        <v>316</v>
+      </c>
       <c r="U54" s="0"/>
       <c r="V54" s="0"/>
       <c r="W54" s="0"/>
@@ -4560,10 +4441,10 @@
         <v>1</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E55" s="0">
         <v>0</v>
@@ -4572,7 +4453,7 @@
         <v>0</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="H55" s="0">
         <v>0</v>
@@ -4595,7 +4476,7 @@
       <c r="N55" s="0"/>
       <c r="O55" s="0"/>
       <c r="P55" s="0" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
       <c r="Q55" s="0"/>
       <c r="R55" s="0" t="b">
@@ -4603,7 +4484,7 @@
       </c>
       <c r="S55" s="0"/>
       <c r="T55" s="0" t="s">
-        <v>374</v>
+        <v>317</v>
       </c>
       <c r="U55" s="0"/>
       <c r="V55" s="0"/>
@@ -4623,10 +4504,10 @@
         <v>1</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E56" s="0">
         <v>0</v>
@@ -4635,7 +4516,7 @@
         <v>0</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="H56" s="0">
         <v>1</v>
@@ -4682,10 +4563,10 @@
         <v>1</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E57" s="0">
         <v>0</v>
@@ -4694,10 +4575,10 @@
         <v>0</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="H57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" s="0">
         <v>0</v>
@@ -4706,20 +4587,18 @@
         <v>0</v>
       </c>
       <c r="K57" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L57" s="0">
         <v>0</v>
       </c>
       <c r="M57" s="0">
-        <v>1</v>
-      </c>
-      <c r="N57" s="0" t="s">
-        <v>306</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N57" s="0"/>
       <c r="O57" s="0"/>
       <c r="P57" s="0" t="s">
-        <v>336</v>
+        <v>318</v>
       </c>
       <c r="Q57" s="0"/>
       <c r="R57" s="0" t="b">
@@ -4727,7 +4606,7 @@
       </c>
       <c r="S57" s="0"/>
       <c r="T57" s="0" t="s">
-        <v>375</v>
+        <v>318</v>
       </c>
       <c r="U57" s="0"/>
       <c r="V57" s="0"/>
@@ -4747,10 +4626,10 @@
         <v>1</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E58" s="0">
         <v>0</v>
@@ -4759,7 +4638,7 @@
         <v>0</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="H58" s="0">
         <v>1</v>
@@ -4806,10 +4685,10 @@
         <v>1</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E59" s="0">
         <v>0</v>
@@ -4818,16 +4697,16 @@
         <v>0</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="H59" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" s="0">
         <v>0</v>
       </c>
       <c r="J59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K59" s="0">
         <v>0</v>
@@ -4836,17 +4715,23 @@
         <v>0</v>
       </c>
       <c r="M59" s="0">
-        <v>0</v>
-      </c>
-      <c r="N59" s="0"/>
+        <v>1</v>
+      </c>
+      <c r="N59" s="0" t="s">
+        <v>288</v>
+      </c>
       <c r="O59" s="0"/>
-      <c r="P59" s="0"/>
+      <c r="P59" s="0" t="s">
+        <v>315</v>
+      </c>
       <c r="Q59" s="0"/>
       <c r="R59" s="0" t="b">
         <v>0</v>
       </c>
       <c r="S59" s="0"/>
-      <c r="T59" s="0"/>
+      <c r="T59" s="0" t="s">
+        <v>315</v>
+      </c>
       <c r="U59" s="0"/>
       <c r="V59" s="0"/>
       <c r="W59" s="0"/>
@@ -4865,10 +4750,10 @@
         <v>1</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E60" s="0">
         <v>0</v>
@@ -4877,16 +4762,16 @@
         <v>0</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="H60" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" s="0">
         <v>0</v>
       </c>
       <c r="J60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K60" s="0">
         <v>0</v>
@@ -4924,10 +4809,10 @@
         <v>1</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E61" s="0">
         <v>0</v>
@@ -4936,7 +4821,7 @@
         <v>0</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="H61" s="0">
         <v>0</v>
@@ -4945,7 +4830,7 @@
         <v>0</v>
       </c>
       <c r="J61" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K61" s="0">
         <v>0</v>
@@ -4983,10 +4868,10 @@
         <v>1</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E62" s="0">
         <v>0</v>
@@ -4995,7 +4880,7 @@
         <v>0</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="H62" s="0">
         <v>0</v>
@@ -5004,10 +4889,10 @@
         <v>0</v>
       </c>
       <c r="J62" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L62" s="0">
         <v>0</v>
@@ -5017,17 +4902,13 @@
       </c>
       <c r="N62" s="0"/>
       <c r="O62" s="0"/>
-      <c r="P62" s="0" t="s">
-        <v>337</v>
-      </c>
+      <c r="P62" s="0"/>
       <c r="Q62" s="0"/>
       <c r="R62" s="0" t="b">
         <v>0</v>
       </c>
       <c r="S62" s="0"/>
-      <c r="T62" s="0" t="s">
-        <v>376</v>
-      </c>
+      <c r="T62" s="0"/>
       <c r="U62" s="0"/>
       <c r="V62" s="0"/>
       <c r="W62" s="0"/>
@@ -5046,10 +4927,10 @@
         <v>1</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E63" s="0">
         <v>0</v>
@@ -5058,10 +4939,10 @@
         <v>0</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="H63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" s="0">
         <v>0</v>
@@ -5105,10 +4986,10 @@
         <v>1</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E64" s="0">
         <v>0</v>
@@ -5117,19 +4998,19 @@
         <v>0</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="H64" s="0">
         <v>0</v>
       </c>
       <c r="I64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" s="0">
         <v>0</v>
       </c>
       <c r="K64" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L64" s="0">
         <v>0</v>
@@ -5139,13 +5020,17 @@
       </c>
       <c r="N64" s="0"/>
       <c r="O64" s="0"/>
-      <c r="P64" s="0"/>
+      <c r="P64" s="0" t="s">
+        <v>319</v>
+      </c>
       <c r="Q64" s="0"/>
       <c r="R64" s="0" t="b">
         <v>0</v>
       </c>
       <c r="S64" s="0"/>
-      <c r="T64" s="0"/>
+      <c r="T64" s="0" t="s">
+        <v>319</v>
+      </c>
       <c r="U64" s="0"/>
       <c r="V64" s="0"/>
       <c r="W64" s="0"/>
@@ -5164,10 +5049,10 @@
         <v>1</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E65" s="0">
         <v>0</v>
@@ -5176,13 +5061,13 @@
         <v>0</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="H65" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" s="0">
         <v>0</v>
@@ -5223,10 +5108,10 @@
         <v>1</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E66" s="0">
         <v>0</v>
@@ -5235,19 +5120,19 @@
         <v>0</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="H66" s="0">
         <v>0</v>
       </c>
       <c r="I66" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" s="0">
         <v>0</v>
       </c>
       <c r="K66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L66" s="0">
         <v>0</v>
@@ -5257,17 +5142,13 @@
       </c>
       <c r="N66" s="0"/>
       <c r="O66" s="0"/>
-      <c r="P66" s="0" t="s">
-        <v>338</v>
-      </c>
+      <c r="P66" s="0"/>
       <c r="Q66" s="0"/>
       <c r="R66" s="0" t="b">
         <v>0</v>
       </c>
       <c r="S66" s="0"/>
-      <c r="T66" s="0" t="s">
-        <v>377</v>
-      </c>
+      <c r="T66" s="0"/>
       <c r="U66" s="0"/>
       <c r="V66" s="0"/>
       <c r="W66" s="0"/>
@@ -5286,10 +5167,10 @@
         <v>1</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E67" s="0">
         <v>0</v>
@@ -5298,29 +5179,27 @@
         <v>0</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="H67" s="0">
         <v>0</v>
       </c>
       <c r="I67" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" s="0">
         <v>0</v>
       </c>
       <c r="K67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L67" s="0">
         <v>0</v>
       </c>
       <c r="M67" s="0">
-        <v>1</v>
-      </c>
-      <c r="N67" s="0" t="s">
-        <v>307</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N67" s="0"/>
       <c r="O67" s="0"/>
       <c r="P67" s="0"/>
       <c r="Q67" s="0"/>
@@ -5347,10 +5226,10 @@
         <v>1</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E68" s="0">
         <v>0</v>
@@ -5359,10 +5238,10 @@
         <v>0</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="H68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" s="0">
         <v>0</v>
@@ -5371,7 +5250,7 @@
         <v>0</v>
       </c>
       <c r="K68" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L68" s="0">
         <v>0</v>
@@ -5381,13 +5260,17 @@
       </c>
       <c r="N68" s="0"/>
       <c r="O68" s="0"/>
-      <c r="P68" s="0"/>
+      <c r="P68" s="0" t="s">
+        <v>320</v>
+      </c>
       <c r="Q68" s="0"/>
       <c r="R68" s="0" t="b">
         <v>0</v>
       </c>
       <c r="S68" s="0"/>
-      <c r="T68" s="0"/>
+      <c r="T68" s="0" t="s">
+        <v>320</v>
+      </c>
       <c r="U68" s="0"/>
       <c r="V68" s="0"/>
       <c r="W68" s="0"/>
@@ -5406,10 +5289,10 @@
         <v>1</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E69" s="0">
         <v>0</v>
@@ -5418,7 +5301,7 @@
         <v>0</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="H69" s="0">
         <v>0</v>
@@ -5436,9 +5319,11 @@
         <v>0</v>
       </c>
       <c r="M69" s="0">
-        <v>0</v>
-      </c>
-      <c r="N69" s="0"/>
+        <v>1</v>
+      </c>
+      <c r="N69" s="0" t="s">
+        <v>289</v>
+      </c>
       <c r="O69" s="0"/>
       <c r="P69" s="0"/>
       <c r="Q69" s="0"/>
@@ -5465,10 +5350,10 @@
         <v>1</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E70" s="0">
         <v>0</v>
@@ -5477,7 +5362,7 @@
         <v>0</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="H70" s="0">
         <v>1</v>
@@ -5524,10 +5409,10 @@
         <v>1</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E71" s="0">
         <v>0</v>
@@ -5536,10 +5421,10 @@
         <v>0</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="H71" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" s="0">
         <v>0</v>
@@ -5548,7 +5433,7 @@
         <v>0</v>
       </c>
       <c r="K71" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L71" s="0">
         <v>0</v>
@@ -5583,10 +5468,10 @@
         <v>1</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E72" s="0">
         <v>0</v>
@@ -5595,7 +5480,7 @@
         <v>0</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="H72" s="0">
         <v>1</v>
@@ -5642,10 +5527,10 @@
         <v>1</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E73" s="0">
         <v>0</v>
@@ -5654,13 +5539,13 @@
         <v>0</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="H73" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" s="0">
         <v>0</v>
@@ -5677,17 +5562,13 @@
       <c r="N73" s="0"/>
       <c r="O73" s="0"/>
       <c r="P73" s="0"/>
-      <c r="Q73" s="0" t="s">
-        <v>347</v>
-      </c>
+      <c r="Q73" s="0"/>
       <c r="R73" s="0" t="b">
         <v>0</v>
       </c>
       <c r="S73" s="0"/>
       <c r="T73" s="0"/>
-      <c r="U73" s="0" t="s">
-        <v>385</v>
-      </c>
+      <c r="U73" s="0"/>
       <c r="V73" s="0"/>
       <c r="W73" s="0"/>
       <c r="X73" s="0">
@@ -5705,10 +5586,10 @@
         <v>1</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E74" s="0">
         <v>0</v>
@@ -5717,7 +5598,7 @@
         <v>0</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="H74" s="0">
         <v>1</v>
@@ -5764,10 +5645,10 @@
         <v>1</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E75" s="0">
         <v>0</v>
@@ -5776,13 +5657,13 @@
         <v>0</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="H75" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" s="0">
         <v>0</v>
@@ -5799,13 +5680,17 @@
       <c r="N75" s="0"/>
       <c r="O75" s="0"/>
       <c r="P75" s="0"/>
-      <c r="Q75" s="0"/>
+      <c r="Q75" s="0" t="s">
+        <v>327</v>
+      </c>
       <c r="R75" s="0" t="b">
         <v>0</v>
       </c>
       <c r="S75" s="0"/>
       <c r="T75" s="0"/>
-      <c r="U75" s="0"/>
+      <c r="U75" s="0" t="s">
+        <v>327</v>
+      </c>
       <c r="V75" s="0"/>
       <c r="W75" s="0"/>
       <c r="X75" s="0">
@@ -5823,10 +5708,10 @@
         <v>1</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E76" s="0">
         <v>0</v>
@@ -5835,10 +5720,10 @@
         <v>0</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
       <c r="H76" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" s="0">
         <v>0</v>
@@ -5847,7 +5732,7 @@
         <v>0</v>
       </c>
       <c r="K76" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L76" s="0">
         <v>0</v>
@@ -5882,10 +5767,10 @@
         <v>1</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E77" s="0">
         <v>0</v>
@@ -5894,13 +5779,13 @@
         <v>0</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="H77" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" s="0">
         <v>0</v>
@@ -5941,10 +5826,10 @@
         <v>1</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E78" s="0">
         <v>0</v>
@@ -5953,19 +5838,19 @@
         <v>0</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="H78" s="0">
         <v>0</v>
       </c>
       <c r="I78" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" s="0">
         <v>0</v>
       </c>
       <c r="K78" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L78" s="0">
         <v>0</v>
@@ -6000,10 +5885,10 @@
         <v>1</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E79" s="0">
         <v>0</v>
@@ -6012,7 +5897,7 @@
         <v>0</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="H79" s="0">
         <v>0</v>
@@ -6059,10 +5944,10 @@
         <v>1</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E80" s="0">
         <v>0</v>
@@ -6071,13 +5956,13 @@
         <v>0</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="H80" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" s="0">
         <v>0</v>
@@ -6118,10 +6003,10 @@
         <v>1</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E81" s="0">
         <v>0</v>
@@ -6130,19 +6015,19 @@
         <v>0</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="H81" s="0">
         <v>0</v>
       </c>
       <c r="I81" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" s="0">
         <v>0</v>
       </c>
       <c r="K81" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L81" s="0">
         <v>0</v>
@@ -6152,17 +6037,13 @@
       </c>
       <c r="N81" s="0"/>
       <c r="O81" s="0"/>
-      <c r="P81" s="0" t="s">
-        <v>339</v>
-      </c>
+      <c r="P81" s="0"/>
       <c r="Q81" s="0"/>
       <c r="R81" s="0" t="b">
         <v>0</v>
       </c>
       <c r="S81" s="0"/>
-      <c r="T81" s="0" t="s">
-        <v>378</v>
-      </c>
+      <c r="T81" s="0"/>
       <c r="U81" s="0"/>
       <c r="V81" s="0"/>
       <c r="W81" s="0"/>
@@ -6181,10 +6062,10 @@
         <v>1</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E82" s="0">
         <v>0</v>
@@ -6193,10 +6074,10 @@
         <v>0</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="H82" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" s="0">
         <v>0</v>
@@ -6208,7 +6089,7 @@
         <v>0</v>
       </c>
       <c r="L82" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M82" s="0">
         <v>0</v>
@@ -6216,17 +6097,13 @@
       <c r="N82" s="0"/>
       <c r="O82" s="0"/>
       <c r="P82" s="0"/>
-      <c r="Q82" s="0" t="s">
-        <v>348</v>
-      </c>
+      <c r="Q82" s="0"/>
       <c r="R82" s="0" t="b">
         <v>0</v>
       </c>
       <c r="S82" s="0"/>
       <c r="T82" s="0"/>
-      <c r="U82" s="0" t="s">
-        <v>386</v>
-      </c>
+      <c r="U82" s="0"/>
       <c r="V82" s="0"/>
       <c r="W82" s="0"/>
       <c r="X82" s="0">
@@ -6244,10 +6121,10 @@
         <v>1</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E83" s="0">
         <v>0</v>
@@ -6256,10 +6133,10 @@
         <v>0</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="H83" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" s="0">
         <v>0</v>
@@ -6268,7 +6145,7 @@
         <v>0</v>
       </c>
       <c r="K83" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L83" s="0">
         <v>0</v>
@@ -6278,13 +6155,17 @@
       </c>
       <c r="N83" s="0"/>
       <c r="O83" s="0"/>
-      <c r="P83" s="0"/>
+      <c r="P83" s="0" t="s">
+        <v>321</v>
+      </c>
       <c r="Q83" s="0"/>
       <c r="R83" s="0" t="b">
         <v>0</v>
       </c>
       <c r="S83" s="0"/>
-      <c r="T83" s="0"/>
+      <c r="T83" s="0" t="s">
+        <v>321</v>
+      </c>
       <c r="U83" s="0"/>
       <c r="V83" s="0"/>
       <c r="W83" s="0"/>
@@ -6303,10 +6184,10 @@
         <v>1</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E84" s="0">
         <v>0</v>
@@ -6315,7 +6196,7 @@
         <v>0</v>
       </c>
       <c r="G84" s="0" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="H84" s="0">
         <v>0</v>
@@ -6324,13 +6205,13 @@
         <v>0</v>
       </c>
       <c r="J84" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K84" s="0">
         <v>0</v>
       </c>
       <c r="L84" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M84" s="0">
         <v>0</v>
@@ -6338,13 +6219,17 @@
       <c r="N84" s="0"/>
       <c r="O84" s="0"/>
       <c r="P84" s="0"/>
-      <c r="Q84" s="0"/>
+      <c r="Q84" s="0" t="s">
+        <v>328</v>
+      </c>
       <c r="R84" s="0" t="b">
         <v>0</v>
       </c>
       <c r="S84" s="0"/>
       <c r="T84" s="0"/>
-      <c r="U84" s="0"/>
+      <c r="U84" s="0" t="s">
+        <v>328</v>
+      </c>
       <c r="V84" s="0"/>
       <c r="W84" s="0"/>
       <c r="X84" s="0">
@@ -6362,10 +6247,10 @@
         <v>1</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E85" s="0">
         <v>0</v>
@@ -6374,10 +6259,10 @@
         <v>0</v>
       </c>
       <c r="G85" s="0" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="H85" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" s="0">
         <v>0</v>
@@ -6386,7 +6271,7 @@
         <v>0</v>
       </c>
       <c r="K85" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L85" s="0">
         <v>0</v>
@@ -6396,17 +6281,13 @@
       </c>
       <c r="N85" s="0"/>
       <c r="O85" s="0"/>
-      <c r="P85" s="0" t="s">
-        <v>339</v>
-      </c>
+      <c r="P85" s="0"/>
       <c r="Q85" s="0"/>
       <c r="R85" s="0" t="b">
         <v>0</v>
       </c>
       <c r="S85" s="0"/>
-      <c r="T85" s="0" t="s">
-        <v>378</v>
-      </c>
+      <c r="T85" s="0"/>
       <c r="U85" s="0"/>
       <c r="V85" s="0"/>
       <c r="W85" s="0"/>
@@ -6425,10 +6306,10 @@
         <v>1</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E86" s="0">
         <v>0</v>
@@ -6437,7 +6318,7 @@
         <v>0</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="H86" s="0">
         <v>0</v>
@@ -6446,42 +6327,34 @@
         <v>0</v>
       </c>
       <c r="J86" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K86" s="0">
         <v>0</v>
       </c>
       <c r="L86" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M86" s="0">
         <v>0</v>
       </c>
       <c r="N86" s="0"/>
-      <c r="O86" s="0" t="s">
-        <v>317</v>
-      </c>
+      <c r="O86" s="0"/>
       <c r="P86" s="0"/>
-      <c r="Q86" s="0" t="s">
-        <v>349</v>
-      </c>
+      <c r="Q86" s="0"/>
       <c r="R86" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="S86" s="0" t="s">
-        <v>357</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S86" s="0"/>
       <c r="T86" s="0"/>
-      <c r="U86" s="0" t="s">
-        <v>387</v>
-      </c>
+      <c r="U86" s="0"/>
       <c r="V86" s="0"/>
       <c r="W86" s="0"/>
       <c r="X86" s="0">
         <v>0</v>
       </c>
       <c r="Y86" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -6492,10 +6365,10 @@
         <v>1</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E87" s="0">
         <v>0</v>
@@ -6504,7 +6377,7 @@
         <v>0</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="H87" s="0">
         <v>0</v>
@@ -6516,39 +6389,35 @@
         <v>0</v>
       </c>
       <c r="K87" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L87" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M87" s="0">
         <v>0</v>
       </c>
       <c r="N87" s="0"/>
-      <c r="O87" s="0" t="s">
-        <v>317</v>
-      </c>
-      <c r="P87" s="0"/>
-      <c r="Q87" s="0" t="s">
-        <v>350</v>
-      </c>
+      <c r="O87" s="0"/>
+      <c r="P87" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q87" s="0"/>
       <c r="R87" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="S87" s="0" t="s">
-        <v>357</v>
-      </c>
-      <c r="T87" s="0"/>
-      <c r="U87" s="0" t="s">
-        <v>388</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S87" s="0"/>
+      <c r="T87" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="U87" s="0"/>
       <c r="V87" s="0"/>
       <c r="W87" s="0"/>
       <c r="X87" s="0">
         <v>0</v>
       </c>
       <c r="Y87" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -6559,10 +6428,10 @@
         <v>1</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E88" s="0">
         <v>0</v>
@@ -6571,13 +6440,13 @@
         <v>0</v>
       </c>
       <c r="G88" s="0" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="H88" s="0">
         <v>0</v>
       </c>
       <c r="I88" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" s="0">
         <v>0</v>
@@ -6586,25 +6455,29 @@
         <v>0</v>
       </c>
       <c r="L88" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M88" s="0">
         <v>0</v>
       </c>
       <c r="N88" s="0"/>
       <c r="O88" s="0" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="P88" s="0"/>
-      <c r="Q88" s="0"/>
+      <c r="Q88" s="0" t="s">
+        <v>329</v>
+      </c>
       <c r="R88" s="0" t="b">
         <v>1</v>
       </c>
       <c r="S88" s="0" t="s">
-        <v>358</v>
+        <v>300</v>
       </c>
       <c r="T88" s="0"/>
-      <c r="U88" s="0"/>
+      <c r="U88" s="0" t="s">
+        <v>329</v>
+      </c>
       <c r="V88" s="0"/>
       <c r="W88" s="0"/>
       <c r="X88" s="0">
@@ -6622,10 +6495,10 @@
         <v>1</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E89" s="0">
         <v>0</v>
@@ -6634,7 +6507,7 @@
         <v>0</v>
       </c>
       <c r="G89" s="0" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="H89" s="0">
         <v>0</v>
@@ -6646,32 +6519,32 @@
         <v>0</v>
       </c>
       <c r="K89" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L89" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M89" s="0">
         <v>0</v>
       </c>
       <c r="N89" s="0"/>
       <c r="O89" s="0" t="s">
-        <v>319</v>
-      </c>
-      <c r="P89" s="0" t="s">
-        <v>339</v>
-      </c>
-      <c r="Q89" s="0"/>
+        <v>300</v>
+      </c>
+      <c r="P89" s="0"/>
+      <c r="Q89" s="0" t="s">
+        <v>330</v>
+      </c>
       <c r="R89" s="0" t="b">
         <v>1</v>
       </c>
       <c r="S89" s="0" t="s">
-        <v>359</v>
-      </c>
-      <c r="T89" s="0" t="s">
-        <v>378</v>
-      </c>
-      <c r="U89" s="0"/>
+        <v>300</v>
+      </c>
+      <c r="T89" s="0"/>
+      <c r="U89" s="0" t="s">
+        <v>330</v>
+      </c>
       <c r="V89" s="0"/>
       <c r="W89" s="0"/>
       <c r="X89" s="0">
@@ -6689,10 +6562,10 @@
         <v>1</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E90" s="0">
         <v>0</v>
@@ -6701,13 +6574,13 @@
         <v>0</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="H90" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" s="0">
         <v>0</v>
@@ -6719,18 +6592,20 @@
         <v>0</v>
       </c>
       <c r="M90" s="0">
-        <v>1</v>
-      </c>
-      <c r="N90" s="0" t="s">
-        <v>308</v>
-      </c>
-      <c r="O90" s="0"/>
+        <v>0</v>
+      </c>
+      <c r="N90" s="0"/>
+      <c r="O90" s="0" t="s">
+        <v>301</v>
+      </c>
       <c r="P90" s="0"/>
       <c r="Q90" s="0"/>
       <c r="R90" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="S90" s="0"/>
+        <v>1</v>
+      </c>
+      <c r="S90" s="0" t="s">
+        <v>333</v>
+      </c>
       <c r="T90" s="0"/>
       <c r="U90" s="0"/>
       <c r="V90" s="0"/>
@@ -6739,7 +6614,7 @@
         <v>0</v>
       </c>
       <c r="Y90" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -6750,10 +6625,10 @@
         <v>1</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E91" s="0">
         <v>0</v>
@@ -6762,37 +6637,43 @@
         <v>0</v>
       </c>
       <c r="G91" s="0" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="H91" s="0">
         <v>0</v>
       </c>
       <c r="I91" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" s="0">
         <v>0</v>
       </c>
       <c r="K91" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L91" s="0">
         <v>0</v>
       </c>
       <c r="M91" s="0">
-        <v>1</v>
-      </c>
-      <c r="N91" s="0" t="s">
-        <v>309</v>
-      </c>
-      <c r="O91" s="0"/>
-      <c r="P91" s="0"/>
+        <v>0</v>
+      </c>
+      <c r="N91" s="0"/>
+      <c r="O91" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="P91" s="0" t="s">
+        <v>321</v>
+      </c>
       <c r="Q91" s="0"/>
       <c r="R91" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="S91" s="0"/>
-      <c r="T91" s="0"/>
+        <v>1</v>
+      </c>
+      <c r="S91" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="T91" s="0" t="s">
+        <v>321</v>
+      </c>
       <c r="U91" s="0"/>
       <c r="V91" s="0"/>
       <c r="W91" s="0"/>
@@ -6800,7 +6681,7 @@
         <v>0</v>
       </c>
       <c r="Y91" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -6811,10 +6692,10 @@
         <v>1</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E92" s="0">
         <v>0</v>
@@ -6823,7 +6704,7 @@
         <v>0</v>
       </c>
       <c r="G92" s="0" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="H92" s="0">
         <v>1</v>
@@ -6841,9 +6722,11 @@
         <v>0</v>
       </c>
       <c r="M92" s="0">
-        <v>0</v>
-      </c>
-      <c r="N92" s="0"/>
+        <v>1</v>
+      </c>
+      <c r="N92" s="0" t="s">
+        <v>290</v>
+      </c>
       <c r="O92" s="0"/>
       <c r="P92" s="0"/>
       <c r="Q92" s="0"/>
@@ -6870,10 +6753,10 @@
         <v>1</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E93" s="0">
         <v>0</v>
@@ -6882,13 +6765,13 @@
         <v>0</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="H93" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" s="0">
         <v>0</v>
@@ -6900,9 +6783,11 @@
         <v>0</v>
       </c>
       <c r="M93" s="0">
-        <v>0</v>
-      </c>
-      <c r="N93" s="0"/>
+        <v>1</v>
+      </c>
+      <c r="N93" s="0" t="s">
+        <v>291</v>
+      </c>
       <c r="O93" s="0"/>
       <c r="P93" s="0"/>
       <c r="Q93" s="0"/>
@@ -6929,10 +6814,10 @@
         <v>1</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E94" s="0">
         <v>0</v>
@@ -6941,19 +6826,19 @@
         <v>0</v>
       </c>
       <c r="G94" s="0" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="H94" s="0">
         <v>0</v>
       </c>
       <c r="I94" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" s="0">
         <v>0</v>
       </c>
       <c r="K94" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L94" s="0">
         <v>0</v>
@@ -6963,13 +6848,17 @@
       </c>
       <c r="N94" s="0"/>
       <c r="O94" s="0"/>
-      <c r="P94" s="0"/>
+      <c r="P94" s="0" t="s">
+        <v>321</v>
+      </c>
       <c r="Q94" s="0"/>
       <c r="R94" s="0" t="b">
         <v>0</v>
       </c>
       <c r="S94" s="0"/>
-      <c r="T94" s="0"/>
+      <c r="T94" s="0" t="s">
+        <v>321</v>
+      </c>
       <c r="U94" s="0"/>
       <c r="V94" s="0"/>
       <c r="W94" s="0"/>
@@ -6988,10 +6877,10 @@
         <v>1</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E95" s="0">
         <v>0</v>
@@ -7000,13 +6889,13 @@
         <v>0</v>
       </c>
       <c r="G95" s="0" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="H95" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" s="0">
         <v>0</v>
@@ -7047,10 +6936,10 @@
         <v>1</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E96" s="0">
         <v>0</v>
@@ -7059,13 +6948,13 @@
         <v>0</v>
       </c>
       <c r="G96" s="0" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="H96" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" s="0">
         <v>0</v>
@@ -7106,10 +6995,10 @@
         <v>1</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E97" s="0">
         <v>0</v>
@@ -7118,19 +7007,19 @@
         <v>0</v>
       </c>
       <c r="G97" s="0" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="H97" s="0">
         <v>0</v>
       </c>
       <c r="I97" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" s="0">
         <v>0</v>
       </c>
       <c r="K97" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L97" s="0">
         <v>0</v>
@@ -7139,17 +7028,13 @@
         <v>0</v>
       </c>
       <c r="N97" s="0"/>
-      <c r="O97" s="0" t="s">
-        <v>320</v>
-      </c>
+      <c r="O97" s="0"/>
       <c r="P97" s="0"/>
       <c r="Q97" s="0"/>
       <c r="R97" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="S97" s="0" t="s">
-        <v>360</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S97" s="0"/>
       <c r="T97" s="0"/>
       <c r="U97" s="0"/>
       <c r="V97" s="0"/>
@@ -7158,7 +7043,7 @@
         <v>0</v>
       </c>
       <c r="Y97" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -7169,10 +7054,10 @@
         <v>1</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E98" s="0">
         <v>0</v>
@@ -7181,13 +7066,13 @@
         <v>0</v>
       </c>
       <c r="G98" s="0" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="H98" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" s="0">
         <v>0</v>
@@ -7228,10 +7113,10 @@
         <v>1</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E99" s="0">
         <v>0</v>
@@ -7240,16 +7125,16 @@
         <v>0</v>
       </c>
       <c r="G99" s="0" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="H99" s="0">
         <v>0</v>
       </c>
       <c r="I99" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K99" s="0">
         <v>0</v>
@@ -7287,10 +7172,10 @@
         <v>1</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E100" s="0">
         <v>0</v>
@@ -7299,10 +7184,10 @@
         <v>0</v>
       </c>
       <c r="G100" s="0" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="H100" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" s="0">
         <v>0</v>
@@ -7311,7 +7196,7 @@
         <v>0</v>
       </c>
       <c r="K100" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L100" s="0">
         <v>0</v>
@@ -7320,13 +7205,17 @@
         <v>0</v>
       </c>
       <c r="N100" s="0"/>
-      <c r="O100" s="0"/>
+      <c r="O100" s="0" t="s">
+        <v>303</v>
+      </c>
       <c r="P100" s="0"/>
       <c r="Q100" s="0"/>
       <c r="R100" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="S100" s="0"/>
+        <v>1</v>
+      </c>
+      <c r="S100" s="0" t="s">
+        <v>303</v>
+      </c>
       <c r="T100" s="0"/>
       <c r="U100" s="0"/>
       <c r="V100" s="0"/>
@@ -7335,7 +7224,7 @@
         <v>0</v>
       </c>
       <c r="Y100" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -7346,10 +7235,10 @@
         <v>1</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E101" s="0">
         <v>0</v>
@@ -7358,13 +7247,13 @@
         <v>0</v>
       </c>
       <c r="G101" s="0" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="H101" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" s="0">
         <v>0</v>
@@ -7379,17 +7268,13 @@
         <v>0</v>
       </c>
       <c r="N101" s="0"/>
-      <c r="O101" s="0" t="s">
-        <v>321</v>
-      </c>
+      <c r="O101" s="0"/>
       <c r="P101" s="0"/>
       <c r="Q101" s="0"/>
       <c r="R101" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="S101" s="0" t="s">
-        <v>361</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S101" s="0"/>
       <c r="T101" s="0"/>
       <c r="U101" s="0"/>
       <c r="V101" s="0"/>
@@ -7398,7 +7283,7 @@
         <v>0</v>
       </c>
       <c r="Y101" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -7409,10 +7294,10 @@
         <v>1</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E102" s="0">
         <v>0</v>
@@ -7421,16 +7306,16 @@
         <v>0</v>
       </c>
       <c r="G102" s="0" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="H102" s="0">
         <v>0</v>
       </c>
       <c r="I102" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K102" s="0">
         <v>0</v>
@@ -7442,17 +7327,13 @@
         <v>0</v>
       </c>
       <c r="N102" s="0"/>
-      <c r="O102" s="0" t="s">
-        <v>322</v>
-      </c>
+      <c r="O102" s="0"/>
       <c r="P102" s="0"/>
       <c r="Q102" s="0"/>
       <c r="R102" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="S102" s="0" t="s">
-        <v>362</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S102" s="0"/>
       <c r="T102" s="0"/>
       <c r="U102" s="0"/>
       <c r="V102" s="0"/>
@@ -7461,7 +7342,7 @@
         <v>0</v>
       </c>
       <c r="Y102" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -7472,10 +7353,10 @@
         <v>1</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E103" s="0">
         <v>0</v>
@@ -7484,10 +7365,10 @@
         <v>0</v>
       </c>
       <c r="G103" s="0" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="H103" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" s="0">
         <v>0</v>
@@ -7496,7 +7377,7 @@
         <v>0</v>
       </c>
       <c r="K103" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L103" s="0">
         <v>0</v>
@@ -7506,17 +7387,13 @@
       </c>
       <c r="N103" s="0"/>
       <c r="O103" s="0"/>
-      <c r="P103" s="0" t="s">
-        <v>339</v>
-      </c>
+      <c r="P103" s="0"/>
       <c r="Q103" s="0"/>
       <c r="R103" s="0" t="b">
         <v>0</v>
       </c>
       <c r="S103" s="0"/>
-      <c r="T103" s="0" t="s">
-        <v>378</v>
-      </c>
+      <c r="T103" s="0"/>
       <c r="U103" s="0"/>
       <c r="V103" s="0"/>
       <c r="W103" s="0"/>
@@ -7535,10 +7412,10 @@
         <v>1</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E104" s="0">
         <v>0</v>
@@ -7547,13 +7424,13 @@
         <v>0</v>
       </c>
       <c r="G104" s="0" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="H104" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" s="0">
         <v>0</v>
@@ -7565,23 +7442,21 @@
         <v>0</v>
       </c>
       <c r="M104" s="0">
-        <v>1</v>
-      </c>
-      <c r="N104" s="0" t="s">
-        <v>310</v>
-      </c>
-      <c r="O104" s="0"/>
-      <c r="P104" s="0" t="s">
-        <v>340</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N104" s="0"/>
+      <c r="O104" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="P104" s="0"/>
       <c r="Q104" s="0"/>
       <c r="R104" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="S104" s="0"/>
-      <c r="T104" s="0" t="s">
-        <v>379</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="S104" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="T104" s="0"/>
       <c r="U104" s="0"/>
       <c r="V104" s="0"/>
       <c r="W104" s="0"/>
@@ -7589,7 +7464,7 @@
         <v>0</v>
       </c>
       <c r="Y104" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -7600,10 +7475,10 @@
         <v>1</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E105" s="0">
         <v>0</v>
@@ -7612,13 +7487,13 @@
         <v>0</v>
       </c>
       <c r="G105" s="0" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
       <c r="H105" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" s="0">
         <v>0</v>
@@ -7630,23 +7505,21 @@
         <v>0</v>
       </c>
       <c r="M105" s="0">
-        <v>1</v>
-      </c>
-      <c r="N105" s="0" t="s">
-        <v>311</v>
-      </c>
-      <c r="O105" s="0"/>
-      <c r="P105" s="0" t="s">
-        <v>340</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N105" s="0"/>
+      <c r="O105" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="P105" s="0"/>
       <c r="Q105" s="0"/>
       <c r="R105" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="S105" s="0"/>
-      <c r="T105" s="0" t="s">
-        <v>379</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="S105" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="T105" s="0"/>
       <c r="U105" s="0"/>
       <c r="V105" s="0"/>
       <c r="W105" s="0"/>
@@ -7654,7 +7527,7 @@
         <v>0</v>
       </c>
       <c r="Y105" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -7665,10 +7538,10 @@
         <v>1</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E106" s="0">
         <v>0</v>
@@ -7677,7 +7550,7 @@
         <v>0</v>
       </c>
       <c r="G106" s="0" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="H106" s="0">
         <v>0</v>
@@ -7698,21 +7571,17 @@
         <v>0</v>
       </c>
       <c r="N106" s="0"/>
-      <c r="O106" s="0" t="s">
-        <v>323</v>
-      </c>
+      <c r="O106" s="0"/>
       <c r="P106" s="0" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
       <c r="Q106" s="0"/>
       <c r="R106" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="S106" s="0" t="s">
-        <v>363</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S106" s="0"/>
       <c r="T106" s="0" t="s">
-        <v>380</v>
+        <v>321</v>
       </c>
       <c r="U106" s="0"/>
       <c r="V106" s="0"/>
@@ -7721,7 +7590,7 @@
         <v>0</v>
       </c>
       <c r="Y106" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -7732,10 +7601,10 @@
         <v>1</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E107" s="0">
         <v>0</v>
@@ -7744,7 +7613,7 @@
         <v>0</v>
       </c>
       <c r="G107" s="0" t="s">
-        <v>273</v>
+        <v>251</v>
       </c>
       <c r="H107" s="0">
         <v>1</v>
@@ -7762,17 +7631,23 @@
         <v>0</v>
       </c>
       <c r="M107" s="0">
-        <v>0</v>
-      </c>
-      <c r="N107" s="0"/>
+        <v>1</v>
+      </c>
+      <c r="N107" s="0" t="s">
+        <v>292</v>
+      </c>
       <c r="O107" s="0"/>
-      <c r="P107" s="0"/>
+      <c r="P107" s="0" t="s">
+        <v>315</v>
+      </c>
       <c r="Q107" s="0"/>
       <c r="R107" s="0" t="b">
         <v>0</v>
       </c>
       <c r="S107" s="0"/>
-      <c r="T107" s="0"/>
+      <c r="T107" s="0" t="s">
+        <v>315</v>
+      </c>
       <c r="U107" s="0"/>
       <c r="V107" s="0"/>
       <c r="W107" s="0"/>
@@ -7791,10 +7666,10 @@
         <v>1</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E108" s="0">
         <v>0</v>
@@ -7803,7 +7678,7 @@
         <v>0</v>
       </c>
       <c r="G108" s="0" t="s">
-        <v>274</v>
+        <v>252</v>
       </c>
       <c r="H108" s="0">
         <v>1</v>
@@ -7821,17 +7696,23 @@
         <v>0</v>
       </c>
       <c r="M108" s="0">
-        <v>0</v>
-      </c>
-      <c r="N108" s="0"/>
+        <v>1</v>
+      </c>
+      <c r="N108" s="0" t="s">
+        <v>293</v>
+      </c>
       <c r="O108" s="0"/>
-      <c r="P108" s="0"/>
+      <c r="P108" s="0" t="s">
+        <v>315</v>
+      </c>
       <c r="Q108" s="0"/>
       <c r="R108" s="0" t="b">
         <v>0</v>
       </c>
       <c r="S108" s="0"/>
-      <c r="T108" s="0"/>
+      <c r="T108" s="0" t="s">
+        <v>315</v>
+      </c>
       <c r="U108" s="0"/>
       <c r="V108" s="0"/>
       <c r="W108" s="0"/>
@@ -7850,10 +7731,10 @@
         <v>1</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E109" s="0">
         <v>0</v>
@@ -7862,10 +7743,10 @@
         <v>0</v>
       </c>
       <c r="G109" s="0" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="H109" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" s="0">
         <v>0</v>
@@ -7874,7 +7755,7 @@
         <v>0</v>
       </c>
       <c r="K109" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L109" s="0">
         <v>0</v>
@@ -7883,14 +7764,22 @@
         <v>0</v>
       </c>
       <c r="N109" s="0"/>
-      <c r="O109" s="0"/>
-      <c r="P109" s="0"/>
+      <c r="O109" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="P109" s="0" t="s">
+        <v>321</v>
+      </c>
       <c r="Q109" s="0"/>
       <c r="R109" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="S109" s="0"/>
-      <c r="T109" s="0"/>
+        <v>1</v>
+      </c>
+      <c r="S109" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="T109" s="0" t="s">
+        <v>321</v>
+      </c>
       <c r="U109" s="0"/>
       <c r="V109" s="0"/>
       <c r="W109" s="0"/>
@@ -7898,7 +7787,7 @@
         <v>0</v>
       </c>
       <c r="Y109" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -7909,10 +7798,10 @@
         <v>1</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E110" s="0">
         <v>0</v>
@@ -7921,7 +7810,7 @@
         <v>0</v>
       </c>
       <c r="G110" s="0" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="H110" s="0">
         <v>1</v>
@@ -7968,10 +7857,10 @@
         <v>1</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E111" s="0">
         <v>0</v>
@@ -7980,10 +7869,10 @@
         <v>0</v>
       </c>
       <c r="G111" s="0" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="H111" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111" s="0">
         <v>0</v>
@@ -7992,7 +7881,7 @@
         <v>0</v>
       </c>
       <c r="K111" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L111" s="0">
         <v>0</v>
@@ -8001,22 +7890,14 @@
         <v>0</v>
       </c>
       <c r="N111" s="0"/>
-      <c r="O111" s="0" t="s">
-        <v>324</v>
-      </c>
-      <c r="P111" s="0" t="s">
-        <v>341</v>
-      </c>
+      <c r="O111" s="0"/>
+      <c r="P111" s="0"/>
       <c r="Q111" s="0"/>
       <c r="R111" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="S111" s="0" t="s">
-        <v>364</v>
-      </c>
-      <c r="T111" s="0" t="s">
-        <v>380</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S111" s="0"/>
+      <c r="T111" s="0"/>
       <c r="U111" s="0"/>
       <c r="V111" s="0"/>
       <c r="W111" s="0"/>
@@ -8024,7 +7905,7 @@
         <v>0</v>
       </c>
       <c r="Y111" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -8035,10 +7916,10 @@
         <v>1</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E112" s="0">
         <v>0</v>
@@ -8047,10 +7928,10 @@
         <v>0</v>
       </c>
       <c r="G112" s="0" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="H112" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I112" s="0">
         <v>0</v>
@@ -8059,7 +7940,7 @@
         <v>0</v>
       </c>
       <c r="K112" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L112" s="0">
         <v>0</v>
@@ -8069,17 +7950,13 @@
       </c>
       <c r="N112" s="0"/>
       <c r="O112" s="0"/>
-      <c r="P112" s="0" t="s">
-        <v>341</v>
-      </c>
+      <c r="P112" s="0"/>
       <c r="Q112" s="0"/>
       <c r="R112" s="0" t="b">
         <v>0</v>
       </c>
       <c r="S112" s="0"/>
-      <c r="T112" s="0" t="s">
-        <v>380</v>
-      </c>
+      <c r="T112" s="0"/>
       <c r="U112" s="0"/>
       <c r="V112" s="0"/>
       <c r="W112" s="0"/>
@@ -8098,10 +7975,10 @@
         <v>1</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E113" s="0">
         <v>0</v>
@@ -8110,16 +7987,16 @@
         <v>0</v>
       </c>
       <c r="G113" s="0" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
       <c r="H113" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113" s="0">
         <v>0</v>
       </c>
       <c r="J113" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K113" s="0">
         <v>0</v>
@@ -8157,9 +8034,11 @@
         <v>1</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="D114" s="0"/>
+        <v>140</v>
+      </c>
+      <c r="D114" s="0" t="s">
+        <v>142</v>
+      </c>
       <c r="E114" s="0">
         <v>0</v>
       </c>
@@ -8167,19 +8046,19 @@
         <v>0</v>
       </c>
       <c r="G114" s="0" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="H114" s="0">
         <v>0</v>
       </c>
       <c r="I114" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" s="0">
         <v>0</v>
       </c>
       <c r="K114" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L114" s="0">
         <v>0</v>
@@ -8188,14 +8067,22 @@
         <v>0</v>
       </c>
       <c r="N114" s="0"/>
-      <c r="O114" s="0"/>
-      <c r="P114" s="0"/>
+      <c r="O114" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="P114" s="0" t="s">
+        <v>321</v>
+      </c>
       <c r="Q114" s="0"/>
       <c r="R114" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="S114" s="0"/>
-      <c r="T114" s="0"/>
+        <v>1</v>
+      </c>
+      <c r="S114" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="T114" s="0" t="s">
+        <v>321</v>
+      </c>
       <c r="U114" s="0"/>
       <c r="V114" s="0"/>
       <c r="W114" s="0"/>
@@ -8203,7 +8090,7 @@
         <v>0</v>
       </c>
       <c r="Y114" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -8214,10 +8101,10 @@
         <v>1</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E115" s="0">
         <v>0</v>
@@ -8226,7 +8113,7 @@
         <v>0</v>
       </c>
       <c r="G115" s="0" t="s">
-        <v>281</v>
+        <v>259</v>
       </c>
       <c r="H115" s="0">
         <v>0</v>
@@ -8238,7 +8125,7 @@
         <v>0</v>
       </c>
       <c r="K115" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L115" s="0">
         <v>0</v>
@@ -8248,13 +8135,17 @@
       </c>
       <c r="N115" s="0"/>
       <c r="O115" s="0"/>
-      <c r="P115" s="0"/>
+      <c r="P115" s="0" t="s">
+        <v>321</v>
+      </c>
       <c r="Q115" s="0"/>
       <c r="R115" s="0" t="b">
         <v>0</v>
       </c>
       <c r="S115" s="0"/>
-      <c r="T115" s="0"/>
+      <c r="T115" s="0" t="s">
+        <v>321</v>
+      </c>
       <c r="U115" s="0"/>
       <c r="V115" s="0"/>
       <c r="W115" s="0"/>
@@ -8273,10 +8164,10 @@
         <v>1</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E116" s="0">
         <v>0</v>
@@ -8285,16 +8176,16 @@
         <v>0</v>
       </c>
       <c r="G116" s="0" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="H116" s="0">
         <v>0</v>
       </c>
       <c r="I116" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K116" s="0">
         <v>0</v>
@@ -8332,10 +8223,10 @@
         <v>1</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E117" s="0">
         <v>0</v>
@@ -8344,10 +8235,10 @@
         <v>0</v>
       </c>
       <c r="G117" s="0" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
       <c r="H117" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" s="0">
         <v>0</v>
@@ -8365,15 +8256,11 @@
         <v>0</v>
       </c>
       <c r="N117" s="0"/>
-      <c r="O117" s="0" t="s">
-        <v>325</v>
-      </c>
-      <c r="P117" s="0" t="s">
-        <v>342</v>
-      </c>
+      <c r="O117" s="0"/>
+      <c r="P117" s="0"/>
       <c r="Q117" s="0"/>
       <c r="R117" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S117" s="0"/>
       <c r="T117" s="0"/>
@@ -8395,10 +8282,10 @@
         <v>1</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E118" s="0">
         <v>0</v>
@@ -8407,7 +8294,7 @@
         <v>0</v>
       </c>
       <c r="G118" s="0" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="H118" s="0">
         <v>0</v>
@@ -8454,10 +8341,10 @@
         <v>1</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E119" s="0">
         <v>0</v>
@@ -8466,7 +8353,7 @@
         <v>0</v>
       </c>
       <c r="G119" s="0" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="H119" s="0">
         <v>1</v>
@@ -8487,11 +8374,15 @@
         <v>0</v>
       </c>
       <c r="N119" s="0"/>
-      <c r="O119" s="0"/>
-      <c r="P119" s="0"/>
+      <c r="O119" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="P119" s="0" t="s">
+        <v>322</v>
+      </c>
       <c r="Q119" s="0"/>
       <c r="R119" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S119" s="0"/>
       <c r="T119" s="0"/>
@@ -8513,10 +8404,10 @@
         <v>1</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E120" s="0">
         <v>0</v>
@@ -8525,16 +8416,16 @@
         <v>0</v>
       </c>
       <c r="G120" s="0" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="H120" s="0">
         <v>0</v>
       </c>
       <c r="I120" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K120" s="0">
         <v>0</v>
@@ -8572,10 +8463,10 @@
         <v>1</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E121" s="0">
         <v>0</v>
@@ -8584,7 +8475,7 @@
         <v>0</v>
       </c>
       <c r="G121" s="0" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
       <c r="H121" s="0">
         <v>1</v>
@@ -8631,10 +8522,10 @@
         <v>1</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E122" s="0">
         <v>0</v>
@@ -8643,7 +8534,7 @@
         <v>0</v>
       </c>
       <c r="G122" s="0" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="H122" s="0">
         <v>0</v>
@@ -8652,10 +8543,10 @@
         <v>0</v>
       </c>
       <c r="J122" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K122" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L122" s="0">
         <v>0</v>
@@ -8690,10 +8581,10 @@
         <v>1</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E123" s="0">
         <v>0</v>
@@ -8702,16 +8593,16 @@
         <v>0</v>
       </c>
       <c r="G123" s="0" t="s">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="H123" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I123" s="0">
         <v>0</v>
       </c>
       <c r="J123" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K123" s="0">
         <v>0</v>
@@ -8749,10 +8640,10 @@
         <v>1</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E124" s="0">
         <v>0</v>
@@ -8761,7 +8652,7 @@
         <v>0</v>
       </c>
       <c r="G124" s="0" t="s">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="H124" s="0">
         <v>1</v>
@@ -8808,10 +8699,10 @@
         <v>1</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E125" s="0">
         <v>0</v>
@@ -8820,10 +8711,10 @@
         <v>0</v>
       </c>
       <c r="G125" s="0" t="s">
-        <v>290</v>
+        <v>268</v>
       </c>
       <c r="H125" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" s="0">
         <v>0</v>
@@ -8832,7 +8723,7 @@
         <v>0</v>
       </c>
       <c r="K125" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L125" s="0">
         <v>0</v>
@@ -8867,10 +8758,10 @@
         <v>1</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E126" s="0">
         <v>0</v>
@@ -8879,7 +8770,7 @@
         <v>0</v>
       </c>
       <c r="G126" s="0" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="H126" s="0">
         <v>0</v>
@@ -8888,10 +8779,10 @@
         <v>0</v>
       </c>
       <c r="J126" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K126" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L126" s="0">
         <v>0</v>
@@ -8926,10 +8817,10 @@
         <v>1</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E127" s="0">
         <v>0</v>
@@ -8938,13 +8829,13 @@
         <v>0</v>
       </c>
       <c r="G127" s="0" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="H127" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I127" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127" s="0">
         <v>0</v>
@@ -8959,17 +8850,13 @@
         <v>0</v>
       </c>
       <c r="N127" s="0"/>
-      <c r="O127" s="0" t="s">
-        <v>326</v>
-      </c>
+      <c r="O127" s="0"/>
       <c r="P127" s="0"/>
       <c r="Q127" s="0"/>
       <c r="R127" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="S127" s="0" t="s">
-        <v>365</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S127" s="0"/>
       <c r="T127" s="0"/>
       <c r="U127" s="0"/>
       <c r="V127" s="0"/>
@@ -8978,7 +8865,7 @@
         <v>0</v>
       </c>
       <c r="Y127" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -8989,10 +8876,10 @@
         <v>1</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="D128" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E128" s="0">
         <v>0</v>
@@ -9001,13 +8888,13 @@
         <v>0</v>
       </c>
       <c r="G128" s="0" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="H128" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I128" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128" s="0">
         <v>0</v>
@@ -9022,17 +8909,13 @@
         <v>0</v>
       </c>
       <c r="N128" s="0"/>
-      <c r="O128" s="0" t="s">
-        <v>327</v>
-      </c>
+      <c r="O128" s="0"/>
       <c r="P128" s="0"/>
       <c r="Q128" s="0"/>
       <c r="R128" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="S128" s="0" t="s">
-        <v>366</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S128" s="0"/>
       <c r="T128" s="0"/>
       <c r="U128" s="0"/>
       <c r="V128" s="0"/>
@@ -9041,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="Y128" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -9052,10 +8935,10 @@
         <v>1</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="D129" s="0" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E129" s="0">
         <v>0</v>
@@ -9064,19 +8947,19 @@
         <v>0</v>
       </c>
       <c r="G129" s="0" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="H129" s="0">
         <v>0</v>
       </c>
       <c r="I129" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129" s="0">
         <v>0</v>
       </c>
       <c r="K129" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L129" s="0">
         <v>0</v>
@@ -9103,6 +8986,191 @@
         <v>0</v>
       </c>
     </row>
+    <row r="130">
+      <c r="A130" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="B130" s="0">
+        <v>1</v>
+      </c>
+      <c r="C130" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="D130" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="E130" s="0">
+        <v>0</v>
+      </c>
+      <c r="F130" s="0">
+        <v>0</v>
+      </c>
+      <c r="G130" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="H130" s="0">
+        <v>0</v>
+      </c>
+      <c r="I130" s="0">
+        <v>1</v>
+      </c>
+      <c r="J130" s="0">
+        <v>0</v>
+      </c>
+      <c r="K130" s="0">
+        <v>0</v>
+      </c>
+      <c r="L130" s="0">
+        <v>0</v>
+      </c>
+      <c r="M130" s="0">
+        <v>0</v>
+      </c>
+      <c r="N130" s="0"/>
+      <c r="O130" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="P130" s="0"/>
+      <c r="Q130" s="0"/>
+      <c r="R130" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="S130" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="T130" s="0"/>
+      <c r="U130" s="0"/>
+      <c r="V130" s="0"/>
+      <c r="W130" s="0"/>
+      <c r="X130" s="0">
+        <v>0</v>
+      </c>
+      <c r="Y130" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B131" s="0">
+        <v>1</v>
+      </c>
+      <c r="C131" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="D131" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="E131" s="0">
+        <v>0</v>
+      </c>
+      <c r="F131" s="0">
+        <v>0</v>
+      </c>
+      <c r="G131" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="H131" s="0">
+        <v>0</v>
+      </c>
+      <c r="I131" s="0">
+        <v>1</v>
+      </c>
+      <c r="J131" s="0">
+        <v>0</v>
+      </c>
+      <c r="K131" s="0">
+        <v>0</v>
+      </c>
+      <c r="L131" s="0">
+        <v>0</v>
+      </c>
+      <c r="M131" s="0">
+        <v>0</v>
+      </c>
+      <c r="N131" s="0"/>
+      <c r="O131" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="P131" s="0"/>
+      <c r="Q131" s="0"/>
+      <c r="R131" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="S131" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="T131" s="0"/>
+      <c r="U131" s="0"/>
+      <c r="V131" s="0"/>
+      <c r="W131" s="0"/>
+      <c r="X131" s="0">
+        <v>0</v>
+      </c>
+      <c r="Y131" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B132" s="0">
+        <v>1</v>
+      </c>
+      <c r="C132" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="D132" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="E132" s="0">
+        <v>0</v>
+      </c>
+      <c r="F132" s="0">
+        <v>0</v>
+      </c>
+      <c r="G132" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="H132" s="0">
+        <v>0</v>
+      </c>
+      <c r="I132" s="0">
+        <v>1</v>
+      </c>
+      <c r="J132" s="0">
+        <v>0</v>
+      </c>
+      <c r="K132" s="0">
+        <v>0</v>
+      </c>
+      <c r="L132" s="0">
+        <v>0</v>
+      </c>
+      <c r="M132" s="0">
+        <v>0</v>
+      </c>
+      <c r="N132" s="0"/>
+      <c r="O132" s="0"/>
+      <c r="P132" s="0"/>
+      <c r="Q132" s="0"/>
+      <c r="R132" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="S132" s="0"/>
+      <c r="T132" s="0"/>
+      <c r="U132" s="0"/>
+      <c r="V132" s="0"/>
+      <c r="W132" s="0"/>
+      <c r="X132" s="0">
+        <v>0</v>
+      </c>
+      <c r="Y132" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>